--- a/data/supersite_area_HD_SD_FINAL_2024_02_09.xlsx
+++ b/data/supersite_area_HD_SD_FINAL_2024_02_09.xlsx
@@ -843,7 +843,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Meadowlark</t>
+          <t>Meadowlark School</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Timberline K-8,Meadowlark</t>
+          <t>Timberline K-8,Meadowlark School</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centaurus HS,Meadowlark,Burlington Elementary,Altona MS,Longs Peak MS,Timberline K-8</t>
+          <t>Centaurus HS,Meadowlark School,Burlington Elementary,Altona MS,Longs Peak MS,Timberline K-8</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
